--- a/Taipei_CaseList.xlsx
+++ b/Taipei_CaseList.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表3" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1033">
   <si>
     <t>Original GM TC ID</t>
   </si>
@@ -3825,70 +3825,203 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4C7C3"/>
-        <bgColor rgb="FFF4C7C3"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="fff4c7c3"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3902,10 +4035,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -3926,25 +4059,25 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3953,76 +4086,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -4033,6159 +4156,7013 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.29"/>
-    <col customWidth="1" min="2" max="2" width="29.0"/>
-    <col customWidth="1" min="3" max="3" width="28.71"/>
-    <col customWidth="1" min="4" max="4" width="29.43"/>
+    <col min="1" max="1" width="42.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.1719" style="1" customWidth="1"/>
+    <col min="5" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" ht="35.65" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="35.65" customHeight="1">
+      <c r="A3" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="35.65" customHeight="1">
+      <c r="A4" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="35.65" customHeight="1">
+      <c r="A5" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="35.65" customHeight="1">
+      <c r="A6" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="35.65" customHeight="1">
+      <c r="A7" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="35.65" customHeight="1">
+      <c r="A8" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="35.65" customHeight="1">
+      <c r="A9" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="57.65" customHeight="1">
+      <c r="A10" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="57.65" customHeight="1">
+      <c r="A11" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="57.65" customHeight="1">
+      <c r="A12" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="57.65" customHeight="1">
+      <c r="A13" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="68.65" customHeight="1">
+      <c r="A14" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="68.65" customHeight="1">
+      <c r="A15" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="68.65" customHeight="1">
+      <c r="A16" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="68.65" customHeight="1">
+      <c r="A17" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+    <row r="18" ht="68.65" customHeight="1">
+      <c r="A18" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+    <row r="19" ht="68.65" customHeight="1">
+      <c r="A19" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="39" customHeight="1">
+      <c r="A20" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="39" customHeight="1">
+      <c r="A21" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="39" customHeight="1">
+      <c r="A22" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="39" customHeight="1">
+      <c r="A23" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="39" customHeight="1">
+      <c r="A24" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+    <row r="25" ht="39" customHeight="1">
+      <c r="A25" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="75" customHeight="1">
+      <c r="A26" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+    <row r="27" ht="39" customHeight="1">
+      <c r="A27" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+    <row r="28" ht="39" customHeight="1">
+      <c r="A28" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+    <row r="29" ht="51" customHeight="1">
+      <c r="A29" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
+    <row r="30" ht="63" customHeight="1">
+      <c r="A30" t="s" s="3">
         <v>91</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+    <row r="31" ht="51" customHeight="1">
+      <c r="A31" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+    <row r="32" ht="63" customHeight="1">
+      <c r="A32" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+    <row r="33" ht="35.65" customHeight="1">
+      <c r="A33" t="s" s="3">
         <v>102</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s" s="4">
         <v>104</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+    <row r="34" ht="35.65" customHeight="1">
+      <c r="A34" t="s" s="3">
         <v>106</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s" s="4">
         <v>108</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+    <row r="35" ht="35.65" customHeight="1">
+      <c r="A35" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s" s="4">
         <v>108</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+    <row r="36" ht="35.65" customHeight="1">
+      <c r="A36" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s" s="4">
         <v>112</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+    <row r="37" ht="35.65" customHeight="1">
+      <c r="A37" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s" s="4">
         <v>115</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+    <row r="38" ht="35.65" customHeight="1">
+      <c r="A38" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s" s="4">
         <v>118</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+    <row r="39" ht="35.65" customHeight="1">
+      <c r="A39" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+    <row r="40" ht="35.65" customHeight="1">
+      <c r="A40" t="s" s="3">
         <v>122</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s" s="4">
         <v>123</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+    <row r="41" ht="35.65" customHeight="1">
+      <c r="A41" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s" s="4">
         <v>126</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+    <row r="42" ht="35.65" customHeight="1">
+      <c r="A42" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s" s="4">
         <v>129</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+    <row r="43" ht="35.65" customHeight="1">
+      <c r="A43" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s" s="4">
         <v>132</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+    <row r="44" ht="35.65" customHeight="1">
+      <c r="A44" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
+    <row r="45" ht="35.65" customHeight="1">
+      <c r="A45" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
+    <row r="46" ht="24.65" customHeight="1">
+      <c r="A46" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
+    <row r="47" ht="24.65" customHeight="1">
+      <c r="A47" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+    <row r="48" ht="24.65" customHeight="1">
+      <c r="A48" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s" s="4">
         <v>148</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+    <row r="49" ht="24.65" customHeight="1">
+      <c r="A49" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s" s="4">
         <v>151</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+    <row r="50" ht="24.65" customHeight="1">
+      <c r="A50" t="s" s="3">
         <v>153</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s" s="4">
         <v>154</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
+    <row r="51" ht="24.65" customHeight="1">
+      <c r="A51" t="s" s="3">
         <v>156</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s" s="4">
         <v>157</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
+    <row r="52" ht="24.65" customHeight="1">
+      <c r="A52" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s" s="4">
         <v>160</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
+    <row r="53" ht="24.65" customHeight="1">
+      <c r="A53" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
+    <row r="54" ht="35.65" customHeight="1">
+      <c r="A54" t="s" s="3">
         <v>165</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s" s="4">
         <v>166</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s" s="4">
         <v>167</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
+    <row r="55" ht="35.65" customHeight="1">
+      <c r="A55" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s" s="4">
         <v>170</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s" s="4">
         <v>171</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
+    <row r="56" ht="24.65" customHeight="1">
+      <c r="A56" t="s" s="3">
         <v>173</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s" s="4">
         <v>174</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s" s="4">
         <v>175</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
+    <row r="57" ht="57.65" customHeight="1">
+      <c r="A57" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
+    <row r="58" ht="57.65" customHeight="1">
+      <c r="A58" t="s" s="3">
         <v>180</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s" s="4">
         <v>181</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
+    <row r="59" ht="68.65" customHeight="1">
+      <c r="A59" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
+    <row r="60" ht="46.65" customHeight="1">
+      <c r="A60" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s" s="4">
         <v>187</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
+    <row r="61" ht="46.65" customHeight="1">
+      <c r="A61" t="s" s="3">
         <v>190</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s" s="4">
         <v>191</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
+    <row r="62" ht="24.65" customHeight="1">
+      <c r="A62" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s" s="4">
         <v>195</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
+    <row r="63" ht="35.65" customHeight="1">
+      <c r="A63" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s" s="4">
         <v>200</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
+    <row r="64" ht="35.65" customHeight="1">
+      <c r="A64" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s" s="4">
         <v>204</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
+    <row r="65" ht="35.65" customHeight="1">
+      <c r="A65" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s" s="4">
         <v>207</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
+    <row r="66" ht="35.65" customHeight="1">
+      <c r="A66" t="s" s="3">
         <v>209</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s" s="4">
         <v>211</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
+    <row r="67" ht="35.65" customHeight="1">
+      <c r="A67" t="s" s="3">
         <v>213</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
+    <row r="68" ht="35.65" customHeight="1">
+      <c r="A68" t="s" s="3">
         <v>216</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
+    <row r="69" ht="35.65" customHeight="1">
+      <c r="A69" t="s" s="3">
         <v>219</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
+    <row r="70" ht="35.65" customHeight="1">
+      <c r="A70" t="s" s="3">
         <v>222</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s" s="4">
         <v>223</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
+    <row r="71" ht="35.65" customHeight="1">
+      <c r="A71" t="s" s="3">
         <v>225</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s" s="4">
         <v>226</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
+    <row r="72" ht="35.65" customHeight="1">
+      <c r="A72" t="s" s="3">
         <v>228</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s" s="4">
         <v>229</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
+    <row r="73" ht="35.65" customHeight="1">
+      <c r="A73" t="s" s="3">
         <v>231</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s" s="4">
         <v>232</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
+    <row r="74" ht="35.65" customHeight="1">
+      <c r="A74" t="s" s="3">
         <v>234</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
+    <row r="75" ht="35.65" customHeight="1">
+      <c r="A75" t="s" s="3">
         <v>236</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
+    <row r="76" ht="35.65" customHeight="1">
+      <c r="A76" t="s" s="3">
         <v>238</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s" s="4">
         <v>239</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
+    <row r="77" ht="35.65" customHeight="1">
+      <c r="A77" t="s" s="3">
         <v>240</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
+    <row r="78" ht="35.65" customHeight="1">
+      <c r="A78" t="s" s="3">
         <v>242</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
+    <row r="79" ht="46.65" customHeight="1">
+      <c r="A79" t="s" s="3">
         <v>243</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s" s="4">
         <v>244</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
+    <row r="80" ht="46.65" customHeight="1">
+      <c r="A80" t="s" s="3">
         <v>246</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
+    <row r="81" ht="46.65" customHeight="1">
+      <c r="A81" t="s" s="3">
         <v>249</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
+    <row r="82" ht="46.65" customHeight="1">
+      <c r="A82" t="s" s="3">
         <v>252</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
+    <row r="83" ht="101.65" customHeight="1">
+      <c r="A83" t="s" s="3">
         <v>255</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
+    <row r="84" ht="79.65" customHeight="1">
+      <c r="A84" t="s" s="3">
         <v>258</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
+    <row r="85" ht="35.65" customHeight="1">
+      <c r="A85" t="s" s="3">
         <v>261</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
+    <row r="86" ht="35.65" customHeight="1">
+      <c r="A86" t="s" s="3">
         <v>265</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s" s="4">
         <v>267</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
+    <row r="87" ht="35.65" customHeight="1">
+      <c r="A87" t="s" s="3">
         <v>269</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s" s="4">
         <v>270</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
+    <row r="88" ht="35.65" customHeight="1">
+      <c r="A88" t="s" s="3">
         <v>272</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
+    <row r="89" ht="35.65" customHeight="1">
+      <c r="A89" t="s" s="3">
         <v>276</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s" s="4">
         <v>277</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
+    <row r="90" ht="35.65" customHeight="1">
+      <c r="A90" t="s" s="3">
         <v>280</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s" s="4">
         <v>281</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
+    <row r="91" ht="35.65" customHeight="1">
+      <c r="A91" t="s" s="3">
         <v>284</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
+    <row r="92" ht="24.65" customHeight="1">
+      <c r="A92" t="s" s="3">
         <v>288</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
+    <row r="93" ht="24.65" customHeight="1">
+      <c r="A93" t="s" s="3">
         <v>292</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s" s="4">
         <v>293</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" t="s" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
+    <row r="94" ht="35.65" customHeight="1">
+      <c r="A94" t="s" s="3">
         <v>295</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
+    <row r="95" ht="35.65" customHeight="1">
+      <c r="A95" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s" s="4">
         <v>300</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" t="s" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
+    <row r="96" ht="35.65" customHeight="1">
+      <c r="A96" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
+    <row r="97" ht="35.65" customHeight="1">
+      <c r="A97" t="s" s="3">
         <v>305</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s" s="4">
         <v>300</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" t="s" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
+    <row r="98" ht="35.65" customHeight="1">
+      <c r="A98" t="s" s="3">
         <v>307</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s" s="4">
         <v>308</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
+    <row r="99" ht="35.65" customHeight="1">
+      <c r="A99" t="s" s="3">
         <v>309</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s" s="4">
         <v>310</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
+    <row r="100" ht="35.65" customHeight="1">
+      <c r="A100" t="s" s="3">
         <v>311</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s" s="4">
         <v>312</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
+    <row r="101" ht="35.65" customHeight="1">
+      <c r="A101" t="s" s="3">
         <v>313</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s" s="4">
         <v>314</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
+    <row r="102" ht="24.65" customHeight="1">
+      <c r="A102" t="s" s="3">
         <v>315</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
+    <row r="103" ht="24.65" customHeight="1">
+      <c r="A103" t="s" s="3">
         <v>317</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s" s="4">
         <v>293</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
+    <row r="104" ht="35.65" customHeight="1">
+      <c r="A104" t="s" s="3">
         <v>318</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s" s="4">
         <v>319</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
+    <row r="105" ht="35.65" customHeight="1">
+      <c r="A105" t="s" s="3">
         <v>320</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s" s="4">
         <v>321</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" t="s" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
+    <row r="106" ht="35.65" customHeight="1">
+      <c r="A106" t="s" s="3">
         <v>322</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s" s="4">
         <v>319</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
+    <row r="107" ht="35.65" customHeight="1">
+      <c r="A107" t="s" s="3">
         <v>323</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s" s="4">
         <v>321</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" t="s" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
+    <row r="108" ht="35.65" customHeight="1">
+      <c r="A108" t="s" s="3">
         <v>324</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s" s="4">
         <v>325</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" t="s" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
+    <row r="109" ht="35.65" customHeight="1">
+      <c r="A109" t="s" s="3">
         <v>326</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s" s="4">
         <v>327</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" t="s" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
+    <row r="110" ht="35.65" customHeight="1">
+      <c r="A110" t="s" s="3">
         <v>328</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s" s="4">
         <v>329</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" t="s" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
+    <row r="111" ht="35.65" customHeight="1">
+      <c r="A111" t="s" s="3">
         <v>330</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s" s="4">
         <v>331</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" t="s" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
+    <row r="112" ht="24.65" customHeight="1">
+      <c r="A112" t="s" s="3">
         <v>332</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" t="s" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
+    <row r="113" ht="35.65" customHeight="1">
+      <c r="A113" t="s" s="3">
         <v>334</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s" s="4">
         <v>335</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" t="s" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
+    <row r="114" ht="35.65" customHeight="1">
+      <c r="A114" t="s" s="3">
         <v>336</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s" s="4">
         <v>337</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
+    <row r="115" ht="35.65" customHeight="1">
+      <c r="A115" t="s" s="3">
         <v>338</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s" s="4">
         <v>339</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" t="s" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
+    <row r="116" ht="35.65" customHeight="1">
+      <c r="A116" t="s" s="3">
         <v>340</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s" s="4">
         <v>341</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" t="s" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
+    <row r="117" ht="35.65" customHeight="1">
+      <c r="A117" t="s" s="3">
         <v>342</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" t="s" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
+    <row r="118" ht="35.65" customHeight="1">
+      <c r="A118" t="s" s="3">
         <v>344</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s" s="4">
         <v>345</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
+    <row r="119" ht="24.65" customHeight="1">
+      <c r="A119" t="s" s="3">
         <v>346</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s" s="4">
         <v>347</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
+    <row r="120" ht="35.65" customHeight="1">
+      <c r="A120" t="s" s="3">
         <v>348</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s" s="4">
         <v>349</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
+    <row r="121" ht="35.65" customHeight="1">
+      <c r="A121" t="s" s="3">
         <v>350</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s" s="4">
         <v>351</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
+    <row r="122" ht="46.65" customHeight="1">
+      <c r="A122" t="s" s="3">
         <v>352</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" t="s" s="4">
         <v>354</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" t="s" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
+    <row r="123" ht="46.65" customHeight="1">
+      <c r="A123" t="s" s="3">
         <v>356</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" t="s" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
+    <row r="124" ht="46.65" customHeight="1">
+      <c r="A124" t="s" s="3">
         <v>359</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s" s="4">
         <v>360</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s" s="3">
         <v>361</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
+    <row r="125" ht="46.65" customHeight="1">
+      <c r="A125" t="s" s="3">
         <v>362</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" t="s" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
+    <row r="126" ht="46.65" customHeight="1">
+      <c r="A126" t="s" s="3">
         <v>363</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" t="s" s="4">
         <v>364</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" t="s" s="3">
         <v>365</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
+    <row r="127" ht="46.65" customHeight="1">
+      <c r="A127" t="s" s="3">
         <v>366</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" t="s" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
+    <row r="128" ht="46.65" customHeight="1">
+      <c r="A128" t="s" s="3">
         <v>369</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" t="s" s="4">
         <v>354</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
+    <row r="129" ht="46.65" customHeight="1">
+      <c r="A129" t="s" s="3">
         <v>371</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
+    <row r="130" ht="46.65" customHeight="1">
+      <c r="A130" t="s" s="3">
         <v>372</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
+    <row r="131" ht="46.65" customHeight="1">
+      <c r="A131" t="s" s="3">
         <v>373</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" t="s" s="4">
         <v>374</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" t="s" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
+    <row r="132" ht="46.65" customHeight="1">
+      <c r="A132" t="s" s="3">
         <v>376</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" t="s" s="4">
         <v>364</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" t="s" s="3">
         <v>365</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
+    <row r="133" ht="46.65" customHeight="1">
+      <c r="A133" t="s" s="3">
         <v>377</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" t="s" s="4">
         <v>378</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" t="s" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
+    <row r="134" ht="46.65" customHeight="1">
+      <c r="A134" t="s" s="3">
         <v>380</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
+    <row r="135" ht="46.65" customHeight="1">
+      <c r="A135" t="s" s="3">
         <v>381</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" t="s" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
+    <row r="136" ht="46.65" customHeight="1">
+      <c r="A136" t="s" s="3">
         <v>382</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s" s="4">
         <v>383</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" t="s" s="4">
         <v>104</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
+    <row r="137" ht="46.65" customHeight="1">
+      <c r="A137" t="s" s="3">
         <v>384</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" t="s" s="4">
         <v>108</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" t="s" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
+    <row r="138" ht="46.65" customHeight="1">
+      <c r="A138" t="s" s="3">
         <v>385</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s" s="4">
         <v>383</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" t="s" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
+    <row r="139" ht="46.65" customHeight="1">
+      <c r="A139" t="s" s="3">
         <v>386</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" t="s" s="4">
         <v>387</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" t="s" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
+    <row r="140" ht="46.65" customHeight="1">
+      <c r="A140" t="s" s="3">
         <v>389</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" t="s" s="3">
         <v>391</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
+    <row r="141" ht="46.65" customHeight="1">
+      <c r="A141" t="s" s="3">
         <v>392</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" t="s" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="s">
+    <row r="142" ht="57.65" customHeight="1">
+      <c r="A142" t="s" s="3">
         <v>395</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s" s="4">
         <v>396</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" t="s" s="4">
         <v>181</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" t="s" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
+    <row r="143" ht="101.65" customHeight="1">
+      <c r="A143" t="s" s="3">
         <v>397</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" t="s" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="s">
+    <row r="144" ht="79.65" customHeight="1">
+      <c r="A144" t="s" s="3">
         <v>399</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" t="s" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="s">
+    <row r="145" ht="57.65" customHeight="1">
+      <c r="A145" t="s" s="3">
         <v>400</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" t="s" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="s">
+    <row r="146" ht="57.65" customHeight="1">
+      <c r="A146" t="s" s="3">
         <v>401</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" t="s" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
+    <row r="147" ht="35.65" customHeight="1">
+      <c r="A147" t="s" s="3">
         <v>402</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" t="s" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="s">
+    <row r="148" ht="35.65" customHeight="1">
+      <c r="A148" t="s" s="3">
         <v>403</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" t="s" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
+    <row r="149" ht="46.65" customHeight="1">
+      <c r="A149" t="s" s="3">
         <v>404</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s" s="4">
         <v>405</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
+    <row r="150" ht="46.65" customHeight="1">
+      <c r="A150" t="s" s="3">
         <v>406</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s" s="4">
         <v>405</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" t="s" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
+    <row r="151" ht="101.65" customHeight="1">
+      <c r="A151" t="s" s="3">
         <v>407</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" t="s" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
+    <row r="152" ht="79.65" customHeight="1">
+      <c r="A152" t="s" s="3">
         <v>409</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" t="s" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
+    <row r="153" ht="57.65" customHeight="1">
+      <c r="A153" t="s" s="3">
         <v>410</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" t="s" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
+    <row r="154" ht="57.65" customHeight="1">
+      <c r="A154" t="s" s="3">
         <v>411</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
+    <row r="155" ht="35.65" customHeight="1">
+      <c r="A155" t="s" s="3">
         <v>412</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" t="s" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
+    <row r="156" ht="35.65" customHeight="1">
+      <c r="A156" t="s" s="3">
         <v>413</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" t="s" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
+    <row r="157" ht="46.65" customHeight="1">
+      <c r="A157" t="s" s="3">
         <v>414</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" t="s" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
+    <row r="158" ht="101.65" customHeight="1">
+      <c r="A158" t="s" s="3">
         <v>416</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" t="s" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
+    <row r="159" ht="79.65" customHeight="1">
+      <c r="A159" t="s" s="3">
         <v>418</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" t="s" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
+    <row r="160" ht="57.65" customHeight="1">
+      <c r="A160" t="s" s="3">
         <v>419</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" t="s" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
+    <row r="161" ht="57.65" customHeight="1">
+      <c r="A161" t="s" s="3">
         <v>420</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" t="s" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
+    <row r="162" ht="35.65" customHeight="1">
+      <c r="A162" t="s" s="3">
         <v>421</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" t="s" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
+    <row r="163" ht="35.65" customHeight="1">
+      <c r="A163" t="s" s="3">
         <v>422</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" t="s" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
+    <row r="164" ht="46.65" customHeight="1">
+      <c r="A164" t="s" s="3">
         <v>423</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" t="s" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
+    <row r="165" ht="46.65" customHeight="1">
+      <c r="A165" t="s" s="3">
         <v>425</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" t="s" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
+    <row r="166" ht="35.65" customHeight="1">
+      <c r="A166" t="s" s="3">
         <v>426</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s" s="4">
         <v>427</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" t="s" s="3">
         <v>429</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
+    <row r="167" ht="35.65" customHeight="1">
+      <c r="A167" t="s" s="3">
         <v>430</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" t="s" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
+    <row r="168" ht="35.65" customHeight="1">
+      <c r="A168" t="s" s="3">
         <v>434</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" t="s" s="3">
         <v>437</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
+    <row r="169" ht="35.65" customHeight="1">
+      <c r="A169" t="s" s="3">
         <v>438</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" t="s" s="3">
         <v>441</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
+    <row r="170" ht="35.65" customHeight="1">
+      <c r="A170" t="s" s="3">
         <v>442</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s" s="4">
         <v>443</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" t="s" s="3">
         <v>445</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
+    <row r="171" ht="35.65" customHeight="1">
+      <c r="A171" t="s" s="3">
         <v>446</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" t="s" s="4">
         <v>448</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" t="s" s="3">
         <v>449</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
+    <row r="172" ht="35.65" customHeight="1">
+      <c r="A172" t="s" s="3">
         <v>450</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s" s="4">
         <v>451</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" t="s" s="4">
         <v>452</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" t="s" s="3">
         <v>453</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
+    <row r="173" ht="189.65" customHeight="1">
+      <c r="A173" t="s" s="3">
         <v>454</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s" s="4">
         <v>455</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" t="s" s="4">
         <v>456</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" t="s" s="3">
         <v>457</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
+    <row r="174" ht="35.65" customHeight="1">
+      <c r="A174" t="s" s="3">
         <v>458</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s" s="4">
         <v>459</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" t="s" s="4">
         <v>460</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" t="s" s="3">
         <v>461</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="s">
+    <row r="175" ht="35.65" customHeight="1">
+      <c r="A175" t="s" s="3">
         <v>462</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s" s="4">
         <v>463</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" t="s" s="4">
         <v>464</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" t="s" s="3">
         <v>465</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
+    <row r="176" ht="35.65" customHeight="1">
+      <c r="A176" t="s" s="3">
         <v>466</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s" s="4">
         <v>459</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" t="s" s="3">
         <v>468</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
+    <row r="177" ht="35.65" customHeight="1">
+      <c r="A177" t="s" s="3">
         <v>469</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s" s="4">
         <v>459</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" t="s" s="3">
         <v>471</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
+    <row r="178" ht="35.65" customHeight="1">
+      <c r="A178" t="s" s="3">
         <v>472</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s" s="4">
         <v>473</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" t="s" s="3">
         <v>475</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
+    <row r="179" ht="35.65" customHeight="1">
+      <c r="A179" t="s" s="3">
         <v>476</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s" s="4">
         <v>477</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" t="s" s="4">
         <v>478</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" t="s" s="3">
         <v>479</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
+    <row r="180" ht="24.65" customHeight="1">
+      <c r="A180" t="s" s="3">
         <v>480</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" t="s" s="4">
         <v>481</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" t="s" s="3">
         <v>482</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
+    <row r="181" ht="24.65" customHeight="1">
+      <c r="A181" t="s" s="3">
         <v>483</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" t="s" s="4">
         <v>484</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" t="s" s="3">
         <v>485</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
+    <row r="182" ht="24.65" customHeight="1">
+      <c r="A182" t="s" s="3">
         <v>486</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" t="s" s="4">
         <v>487</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" t="s" s="3">
         <v>488</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
+    <row r="183" ht="24.65" customHeight="1">
+      <c r="A183" t="s" s="3">
         <v>489</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" t="s" s="4">
         <v>490</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" t="s" s="3">
         <v>491</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
+    <row r="184" ht="24.65" customHeight="1">
+      <c r="A184" t="s" s="3">
         <v>492</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" t="s" s="4">
         <v>493</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" t="s" s="3">
         <v>494</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
+    <row r="185" ht="24.65" customHeight="1">
+      <c r="A185" t="s" s="3">
         <v>495</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" t="s" s="3">
         <v>494</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
+    <row r="186" ht="24.65" customHeight="1">
+      <c r="A186" t="s" s="3">
         <v>497</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" t="s" s="4">
         <v>498</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" t="s" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
+    <row r="187" ht="24.65" customHeight="1">
+      <c r="A187" t="s" s="3">
         <v>500</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" t="s" s="4">
         <v>501</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" t="s" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
+    <row r="188" ht="24.65" customHeight="1">
+      <c r="A188" t="s" s="3">
         <v>502</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" t="s" s="4">
         <v>503</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" t="s" s="3">
         <v>504</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
+    <row r="189" ht="24.65" customHeight="1">
+      <c r="A189" t="s" s="3">
         <v>505</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" t="s" s="4">
         <v>506</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" t="s" s="3">
         <v>504</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
+    <row r="190" ht="35.65" customHeight="1">
+      <c r="A190" t="s" s="3">
         <v>507</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s" s="4">
         <v>508</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" t="s" s="4">
         <v>509</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" t="s" s="3">
         <v>510</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
+    <row r="191" ht="35.65" customHeight="1">
+      <c r="A191" t="s" s="3">
         <v>511</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s" s="4">
         <v>512</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" t="s" s="3">
         <v>429</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
+    <row r="192" ht="35.65" customHeight="1">
+      <c r="A192" t="s" s="3">
         <v>513</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s" s="4">
         <v>514</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" t="s" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="s">
+    <row r="193" ht="35.65" customHeight="1">
+      <c r="A193" t="s" s="3">
         <v>515</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s" s="4">
         <v>516</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" t="s" s="3">
         <v>437</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
+    <row r="194" ht="35.65" customHeight="1">
+      <c r="A194" t="s" s="3">
         <v>517</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s" s="4">
         <v>518</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s" s="3">
         <v>441</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
+    <row r="195" ht="35.65" customHeight="1">
+      <c r="A195" t="s" s="3">
         <v>519</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s" s="4">
         <v>520</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" t="s" s="3">
         <v>445</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
+    <row r="196" ht="35.65" customHeight="1">
+      <c r="A196" t="s" s="3">
         <v>521</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s" s="4">
         <v>522</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s" s="4">
         <v>448</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" t="s" s="3">
         <v>449</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
+    <row r="197" ht="35.65" customHeight="1">
+      <c r="A197" t="s" s="3">
         <v>523</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s" s="4">
         <v>524</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" t="s" s="4">
         <v>452</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" t="s" s="3">
         <v>453</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
+    <row r="198" ht="35.65" customHeight="1">
+      <c r="A198" t="s" s="3">
         <v>525</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s" s="4">
         <v>526</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" t="s" s="4">
         <v>460</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" t="s" s="3">
         <v>461</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
+    <row r="199" ht="35.65" customHeight="1">
+      <c r="A199" t="s" s="3">
         <v>527</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s" s="4">
         <v>528</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" t="s" s="4">
         <v>464</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" t="s" s="3">
         <v>465</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
+    <row r="200" ht="35.65" customHeight="1">
+      <c r="A200" t="s" s="3">
         <v>529</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s" s="4">
         <v>526</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" t="s" s="3">
         <v>468</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
+    <row r="201" ht="35.65" customHeight="1">
+      <c r="A201" t="s" s="3">
         <v>530</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s" s="4">
         <v>526</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" t="s" s="3">
         <v>471</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
+    <row r="202" ht="35.65" customHeight="1">
+      <c r="A202" t="s" s="3">
         <v>531</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s" s="4">
         <v>532</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" t="s" s="3">
         <v>475</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
+    <row r="203" ht="24.65" customHeight="1">
+      <c r="A203" t="s" s="3">
         <v>533</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" t="s" s="4">
         <v>493</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" t="s" s="3">
         <v>494</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
+    <row r="204" ht="24.65" customHeight="1">
+      <c r="A204" t="s" s="3">
         <v>534</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" t="s" s="3">
         <v>494</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
+    <row r="205" ht="24.65" customHeight="1">
+      <c r="A205" t="s" s="3">
         <v>535</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" t="s" s="4">
         <v>498</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" t="s" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
+    <row r="206" ht="24.65" customHeight="1">
+      <c r="A206" t="s" s="3">
         <v>536</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" t="s" s="4">
         <v>501</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" t="s" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
+    <row r="207" ht="35.65" customHeight="1">
+      <c r="A207" t="s" s="3">
         <v>537</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s" s="4">
         <v>538</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" t="s" s="3">
         <v>429</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="s">
+    <row r="208" ht="35.65" customHeight="1">
+      <c r="A208" t="s" s="3">
         <v>539</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" t="s" s="4">
         <v>540</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" t="s" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
+    <row r="209" ht="35.65" customHeight="1">
+      <c r="A209" t="s" s="3">
         <v>541</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" t="s" s="4">
         <v>542</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" t="s" s="4">
         <v>460</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s" s="3">
         <v>461</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
+    <row r="210" ht="35.65" customHeight="1">
+      <c r="A210" t="s" s="3">
         <v>543</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s" s="4">
         <v>544</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" t="s" s="4">
         <v>545</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" t="s" s="3">
         <v>546</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
+    <row r="211" ht="35.65" customHeight="1">
+      <c r="A211" t="s" s="3">
         <v>547</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" t="s" s="4">
         <v>542</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" t="s" s="3">
         <v>468</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
+    <row r="212" ht="35.65" customHeight="1">
+      <c r="A212" t="s" s="3">
         <v>548</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s" s="4">
         <v>542</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" t="s" s="3">
         <v>471</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
+    <row r="213" ht="35.65" customHeight="1">
+      <c r="A213" t="s" s="3">
         <v>549</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" t="s" s="4">
         <v>550</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" t="s" s="4">
         <v>493</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" t="s" s="3">
         <v>494</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="s">
+    <row r="214" ht="24.65" customHeight="1">
+      <c r="A214" t="s" s="3">
         <v>551</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" t="s" s="4">
         <v>347</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" t="s" s="3">
         <v>494</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
+    <row r="215" ht="24.65" customHeight="1">
+      <c r="A215" t="s" s="3">
         <v>552</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" t="s" s="4">
         <v>347</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" t="s" s="4">
         <v>498</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" t="s" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
+    <row r="216" ht="24.65" customHeight="1">
+      <c r="A216" t="s" s="3">
         <v>553</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" t="s" s="4">
         <v>347</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" t="s" s="4">
         <v>501</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" t="s" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
+    <row r="217" ht="35.65" customHeight="1">
+      <c r="A217" t="s" s="3">
         <v>554</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" t="s" s="4">
         <v>555</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" t="s" s="4">
         <v>509</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" t="s" s="3">
         <v>510</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
+    <row r="218" ht="35.65" customHeight="1">
+      <c r="A218" t="s" s="3">
         <v>556</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" t="s" s="4">
         <v>557</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" t="s" s="3">
         <v>429</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
+    <row r="219" ht="35.65" customHeight="1">
+      <c r="A219" t="s" s="3">
         <v>558</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" t="s" s="4">
         <v>559</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" t="s" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
+    <row r="220" ht="35.65" customHeight="1">
+      <c r="A220" t="s" s="3">
         <v>560</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" t="s" s="4">
         <v>561</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" t="s" s="4">
         <v>460</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" t="s" s="3">
         <v>461</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
+    <row r="221" ht="46.65" customHeight="1">
+      <c r="A221" t="s" s="3">
         <v>562</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" t="s" s="4">
         <v>563</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" t="s" s="4">
         <v>564</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" t="s" s="3">
         <v>465</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
+    <row r="222" ht="35.65" customHeight="1">
+      <c r="A222" t="s" s="3">
         <v>565</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" t="s" s="4">
         <v>561</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" t="s" s="3">
         <v>468</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
+    <row r="223" ht="35.65" customHeight="1">
+      <c r="A223" t="s" s="3">
         <v>566</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" t="s" s="4">
         <v>561</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" t="s" s="3">
         <v>471</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
+    <row r="224" ht="35.65" customHeight="1">
+      <c r="A224" t="s" s="3">
         <v>567</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" t="s" s="4">
         <v>568</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" t="s" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
+    <row r="225" ht="35.65" customHeight="1">
+      <c r="A225" t="s" s="3">
         <v>569</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" t="s" s="4">
         <v>568</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
+    <row r="226" ht="68.65" customHeight="1">
+      <c r="A226" t="s" s="3">
         <v>570</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" t="s" s="4">
         <v>571</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" t="s" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
+    <row r="227" ht="57.65" customHeight="1">
+      <c r="A227" t="s" s="3">
         <v>572</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" t="s" s="4">
         <v>573</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" t="s" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
+    <row r="228" ht="35.65" customHeight="1">
+      <c r="A228" t="s" s="3">
         <v>574</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" t="s" s="4">
         <v>575</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" t="s" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
+    <row r="229" ht="35.65" customHeight="1">
+      <c r="A229" t="s" s="3">
         <v>576</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" t="s" s="4">
         <v>575</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
+    <row r="230" ht="68.65" customHeight="1">
+      <c r="A230" t="s" s="3">
         <v>577</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" t="s" s="4">
         <v>578</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" t="s" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
+    <row r="231" ht="57.65" customHeight="1">
+      <c r="A231" t="s" s="3">
         <v>579</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" t="s" s="4">
         <v>580</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" t="s" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
+    <row r="232" ht="35.65" customHeight="1">
+      <c r="A232" t="s" s="3">
         <v>581</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" t="s" s="4">
         <v>582</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" t="s" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
+    <row r="233" ht="68.65" customHeight="1">
+      <c r="A233" t="s" s="3">
         <v>583</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" t="s" s="4">
         <v>582</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" t="s" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
+    <row r="234" ht="35.65" customHeight="1">
+      <c r="A234" t="s" s="3">
         <v>584</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" t="s" s="4">
         <v>585</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" t="s" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
+    <row r="235" ht="35.65" customHeight="1">
+      <c r="A235" t="s" s="3">
         <v>586</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" t="s" s="4">
         <v>585</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
+    <row r="236" ht="68.65" customHeight="1">
+      <c r="A236" t="s" s="3">
         <v>587</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" t="s" s="4">
         <v>588</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" t="s" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
+    <row r="237" ht="57.65" customHeight="1">
+      <c r="A237" t="s" s="3">
         <v>589</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" t="s" s="4">
         <v>590</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" t="s" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
+    <row r="238" ht="35.65" customHeight="1">
+      <c r="A238" t="s" s="3">
         <v>591</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s" s="4">
         <v>592</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" t="s" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
+    <row r="239" ht="68.65" customHeight="1">
+      <c r="A239" t="s" s="3">
         <v>593</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" t="s" s="4">
         <v>592</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" t="s" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
+    <row r="240" ht="79.65" customHeight="1">
+      <c r="A240" t="s" s="3">
         <v>594</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" t="s" s="4">
         <v>595</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" t="s" s="4">
         <v>596</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" t="s" s="4">
         <v>597</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="s">
+    <row r="241" ht="79.65" customHeight="1">
+      <c r="A241" t="s" s="3">
         <v>598</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" t="s" s="4">
         <v>599</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" t="s" s="4">
         <v>600</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" t="s" s="4">
         <v>601</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
+    <row r="242" ht="24.65" customHeight="1">
+      <c r="A242" t="s" s="3">
         <v>602</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" t="s" s="4">
         <v>603</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" t="s" s="4">
         <v>605</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
+    <row r="243" ht="24.65" customHeight="1">
+      <c r="A243" t="s" s="3">
         <v>606</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" t="s" s="4">
         <v>607</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
+    <row r="244" ht="24.65" customHeight="1">
+      <c r="A244" t="s" s="3">
         <v>609</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" t="s" s="4">
         <v>610</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
+    <row r="245" ht="24.65" customHeight="1">
+      <c r="A245" t="s" s="3">
         <v>611</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" t="s" s="4">
         <v>612</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
+    <row r="246" ht="24.65" customHeight="1">
+      <c r="A246" t="s" s="3">
         <v>613</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" t="s" s="4">
         <v>614</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" t="s" s="4">
         <v>605</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
+    <row r="247" ht="24.65" customHeight="1">
+      <c r="A247" t="s" s="3">
         <v>615</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" t="s" s="4">
         <v>616</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
+    <row r="248" ht="35.65" customHeight="1">
+      <c r="A248" t="s" s="3">
         <v>617</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" t="s" s="4">
         <v>618</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
+    <row r="249" ht="35.65" customHeight="1">
+      <c r="A249" t="s" s="3">
         <v>620</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" t="s" s="4">
         <v>621</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
+    <row r="250" ht="35.65" customHeight="1">
+      <c r="A250" t="s" s="3">
         <v>622</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" t="s" s="4">
         <v>623</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="s">
+    <row r="251" ht="35.65" customHeight="1">
+      <c r="A251" t="s" s="3">
         <v>624</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" t="s" s="4">
         <v>625</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="s">
+    <row r="252" ht="35.65" customHeight="1">
+      <c r="A252" t="s" s="3">
         <v>626</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" t="s" s="4">
         <v>627</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="s">
+    <row r="253" ht="35.65" customHeight="1">
+      <c r="A253" t="s" s="3">
         <v>628</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" t="s" s="4">
         <v>629</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" t="s" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="s">
+    <row r="254" ht="46.65" customHeight="1">
+      <c r="A254" t="s" s="3">
         <v>630</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" t="s" s="4">
         <v>631</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" t="s" s="3">
         <v>633</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="s">
+    <row r="255" ht="35.65" customHeight="1">
+      <c r="A255" t="s" s="3">
         <v>634</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" t="s" s="4">
         <v>635</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" t="s" s="3">
         <v>633</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="s">
+    <row r="256" ht="35.65" customHeight="1">
+      <c r="A256" t="s" s="3">
         <v>636</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" t="s" s="4">
         <v>637</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" t="s" s="3">
         <v>633</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="s">
+    <row r="257" ht="46.65" customHeight="1">
+      <c r="A257" t="s" s="3">
         <v>638</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" t="s" s="4">
         <v>639</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" t="s" s="3">
         <v>633</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
+    <row r="258" ht="35.65" customHeight="1">
+      <c r="A258" t="s" s="3">
         <v>640</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s" s="4">
         <v>641</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" t="s" s="3">
         <v>633</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="s">
+    <row r="259" ht="35.65" customHeight="1">
+      <c r="A259" t="s" s="3">
         <v>642</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" t="s" s="4">
         <v>643</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" t="s" s="3">
         <v>633</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="s">
+    <row r="260" ht="35.65" customHeight="1">
+      <c r="A260" t="s" s="3">
         <v>644</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" t="s" s="4">
         <v>645</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="s">
+    <row r="261" ht="35.65" customHeight="1">
+      <c r="A261" t="s" s="3">
         <v>647</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" t="s" s="4">
         <v>648</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="s">
+    <row r="262" ht="35.65" customHeight="1">
+      <c r="A262" t="s" s="3">
         <v>649</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" t="s" s="4">
         <v>650</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
+    <row r="263" ht="35.65" customHeight="1">
+      <c r="A263" t="s" s="3">
         <v>651</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" t="s" s="4">
         <v>650</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="s">
+    <row r="264" ht="35.65" customHeight="1">
+      <c r="A264" t="s" s="3">
         <v>652</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" t="s" s="4">
         <v>653</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="s">
+    <row r="265" ht="35.65" customHeight="1">
+      <c r="A265" t="s" s="3">
         <v>654</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" t="s" s="4">
         <v>655</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="s">
+    <row r="266" ht="35.65" customHeight="1">
+      <c r="A266" t="s" s="3">
         <v>656</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" t="s" s="4">
         <v>657</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="s">
+    <row r="267" ht="35.65" customHeight="1">
+      <c r="A267" t="s" s="3">
         <v>658</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" t="s" s="4">
         <v>659</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="s">
+    <row r="268" ht="35.65" customHeight="1">
+      <c r="A268" t="s" s="3">
         <v>660</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" t="s" s="4">
         <v>657</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="s">
+    <row r="269" ht="35.65" customHeight="1">
+      <c r="A269" t="s" s="3">
         <v>661</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" t="s" s="4">
         <v>659</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="s">
+    <row r="270" ht="24.65" customHeight="1">
+      <c r="A270" t="s" s="3">
         <v>662</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" t="s" s="4">
         <v>663</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="s">
+    <row r="271" ht="24.65" customHeight="1">
+      <c r="A271" t="s" s="3">
         <v>664</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" t="s" s="4">
         <v>665</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" t="s" s="3">
         <v>632</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="s">
+    <row r="272" ht="35.65" customHeight="1">
+      <c r="A272" t="s" s="3">
         <v>666</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" t="s" s="4">
         <v>667</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="s">
+    <row r="273" ht="35.65" customHeight="1">
+      <c r="A273" t="s" s="3">
         <v>668</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" t="s" s="4">
         <v>669</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
+    <row r="274" ht="35.65" customHeight="1">
+      <c r="A274" t="s" s="3">
         <v>670</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" t="s" s="4">
         <v>667</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" t="s" s="3">
         <v>671</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
+    <row r="275" ht="35.65" customHeight="1">
+      <c r="A275" t="s" s="3">
         <v>672</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" t="s" s="4">
         <v>669</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" t="s" s="3">
         <v>671</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
+    <row r="276" ht="35.65" customHeight="1">
+      <c r="A276" t="s" s="3">
         <v>673</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" t="s" s="4">
         <v>674</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
+    <row r="277" ht="35.65" customHeight="1">
+      <c r="A277" t="s" s="3">
         <v>675</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" t="s" s="4">
         <v>676</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" t="s" s="3">
         <v>619</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" t="s" s="3">
         <v>646</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
+    <row r="278" ht="24.65" customHeight="1">
+      <c r="A278" t="s" s="3">
         <v>677</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" t="s" s="4">
         <v>678</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" t="s" s="3">
         <v>679</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
+    <row r="279" ht="57.65" customHeight="1">
+      <c r="A279" t="s" s="3">
         <v>680</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" t="s" s="4">
         <v>681</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" t="s" s="4">
         <v>682</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" t="s" s="3">
         <v>683</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
+    <row r="280" ht="46.65" customHeight="1">
+      <c r="A280" t="s" s="3">
         <v>684</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" t="s" s="4">
         <v>685</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" t="s" s="3">
         <v>686</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" t="s" s="3">
         <v>683</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
+    <row r="281" ht="57.65" customHeight="1">
+      <c r="A281" t="s" s="3">
         <v>687</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" t="s" s="4">
         <v>688</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" t="s" s="3">
         <v>686</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" t="s" s="3">
         <v>689</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
+    <row r="282" ht="57.65" customHeight="1">
+      <c r="A282" t="s" s="3">
         <v>690</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" t="s" s="4">
         <v>691</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" t="s" s="3">
         <v>686</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" t="s" s="3">
         <v>683</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="s">
+    <row r="283" ht="24.65" customHeight="1">
+      <c r="A283" t="s" s="3">
         <v>692</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" t="s" s="4">
         <v>693</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" t="s" s="3">
         <v>686</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" t="s" s="3">
         <v>694</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="s">
+    <row r="284" ht="35.65" customHeight="1">
+      <c r="A284" t="s" s="3">
         <v>695</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" t="s" s="4">
         <v>696</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" t="s" s="3">
         <v>697</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="s">
+    <row r="285" ht="35.65" customHeight="1">
+      <c r="A285" t="s" s="3">
         <v>699</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" t="s" s="4">
         <v>700</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" t="s" s="3">
         <v>701</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="s">
+    <row r="286" ht="35.65" customHeight="1">
+      <c r="A286" t="s" s="3">
         <v>702</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" t="s" s="4">
         <v>696</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" t="s" s="4">
         <v>703</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" t="s" s="4">
         <v>704</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="s">
+    <row r="287" ht="35.65" customHeight="1">
+      <c r="A287" t="s" s="3">
         <v>705</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" t="s" s="3">
         <v>707</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="s">
+    <row r="288" ht="35.65" customHeight="1">
+      <c r="A288" t="s" s="3">
         <v>708</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" t="s" s="4">
         <v>696</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" t="s" s="3">
         <v>709</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="s">
+    <row r="289" ht="35.65" customHeight="1">
+      <c r="A289" t="s" s="3">
         <v>710</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" t="s" s="3">
         <v>711</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="s">
+    <row r="290" ht="35.65" customHeight="1">
+      <c r="A290" t="s" s="3">
         <v>712</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" t="s" s="4">
         <v>713</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" t="s" s="3">
         <v>709</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
+    <row r="291" ht="35.65" customHeight="1">
+      <c r="A291" t="s" s="3">
         <v>714</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" t="s" s="4">
         <v>715</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" t="s" s="3">
         <v>711</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="s">
+    <row r="292" ht="35.65" customHeight="1">
+      <c r="A292" t="s" s="3">
         <v>716</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" t="s" s="4">
         <v>717</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" t="s" s="4">
         <v>704</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="s">
+    <row r="293" ht="35.65" customHeight="1">
+      <c r="A293" t="s" s="3">
         <v>718</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" t="s" s="3">
         <v>719</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="s">
+    <row r="294" ht="35.65" customHeight="1">
+      <c r="A294" t="s" s="3">
         <v>720</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" t="s" s="4">
         <v>696</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" t="s" s="3">
         <v>721</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="s">
+    <row r="295" ht="35.65" customHeight="1">
+      <c r="A295" t="s" s="3">
         <v>722</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" t="s" s="3">
         <v>723</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
+    <row r="296" ht="35.65" customHeight="1">
+      <c r="A296" t="s" s="3">
         <v>724</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" t="s" s="4">
         <v>713</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" t="s" s="3">
         <v>721</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="s">
+    <row r="297" ht="35.65" customHeight="1">
+      <c r="A297" t="s" s="3">
         <v>725</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" t="s" s="4">
         <v>715</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" t="s" s="3">
         <v>723</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D297" t="s" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
+    <row r="298" ht="35.65" customHeight="1">
+      <c r="A298" t="s" s="3">
         <v>726</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" t="s" s="4">
         <v>727</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" t="s" s="4">
         <v>728</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D298" t="s" s="4">
         <v>729</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
+    <row r="299" ht="35.65" customHeight="1">
+      <c r="A299" t="s" s="3">
         <v>730</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" t="s" s="3">
         <v>732</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
+    <row r="300" ht="35.65" customHeight="1">
+      <c r="A300" t="s" s="3">
         <v>734</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" t="s" s="3">
         <v>735</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D300" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
+    <row r="301" ht="35.65" customHeight="1">
+      <c r="A301" t="s" s="3">
         <v>736</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" t="s" s="3">
         <v>737</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
+    <row r="302" ht="35.65" customHeight="1">
+      <c r="A302" t="s" s="3">
         <v>738</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" t="s" s="3">
         <v>740</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
+    <row r="303" ht="35.65" customHeight="1">
+      <c r="A303" t="s" s="3">
         <v>741</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" t="s" s="3">
         <v>737</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
+    <row r="304" ht="35.65" customHeight="1">
+      <c r="A304" t="s" s="3">
         <v>742</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" t="s" s="3">
         <v>743</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="D304" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="s">
+    <row r="305" ht="35.65" customHeight="1">
+      <c r="A305" t="s" s="3">
         <v>744</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" t="s" s="3">
         <v>745</v>
       </c>
-      <c r="D305" s="2" t="s">
+      <c r="D305" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="s">
+    <row r="306" ht="35.65" customHeight="1">
+      <c r="A306" t="s" s="3">
         <v>746</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" t="s" s="3">
         <v>745</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="s">
+    <row r="307" ht="35.65" customHeight="1">
+      <c r="A307" t="s" s="3">
         <v>747</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" t="s" s="3">
         <v>748</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D307" t="s" s="3">
         <v>733</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="s">
+    <row r="308" ht="35.65" customHeight="1">
+      <c r="A308" t="s" s="3">
         <v>749</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" t="s" s="4">
         <v>750</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="D308" t="s" s="4">
         <v>751</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="s">
+    <row r="309" ht="35.65" customHeight="1">
+      <c r="A309" t="s" s="3">
         <v>752</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" t="s" s="3">
         <v>753</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="s">
+    <row r="310" ht="35.65" customHeight="1">
+      <c r="A310" t="s" s="3">
         <v>755</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" t="s" s="3">
         <v>756</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D310" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="s">
+    <row r="311" ht="35.65" customHeight="1">
+      <c r="A311" t="s" s="3">
         <v>757</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" t="s" s="4">
         <v>731</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" t="s" s="3">
         <v>758</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D311" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="s">
+    <row r="312" ht="35.65" customHeight="1">
+      <c r="A312" t="s" s="3">
         <v>759</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" t="s" s="3">
         <v>756</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D312" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="s">
+    <row r="313" ht="35.65" customHeight="1">
+      <c r="A313" t="s" s="3">
         <v>760</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" t="s" s="3">
         <v>758</v>
       </c>
-      <c r="D313" s="2" t="s">
+      <c r="D313" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="s">
+    <row r="314" ht="35.65" customHeight="1">
+      <c r="A314" t="s" s="3">
         <v>761</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" t="s" s="3">
         <v>762</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D314" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="s">
+    <row r="315" ht="35.65" customHeight="1">
+      <c r="A315" t="s" s="3">
         <v>763</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" t="s" s="4">
         <v>739</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" t="s" s="3">
         <v>764</v>
       </c>
-      <c r="D315" s="2" t="s">
+      <c r="D315" t="s" s="3">
         <v>754</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="s">
+    <row r="316" ht="35.65" customHeight="1">
+      <c r="A316" t="s" s="3">
         <v>765</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" t="s" s="4">
         <v>706</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" t="s" s="4">
         <v>766</v>
       </c>
-      <c r="D316" s="2" t="s">
+      <c r="D316" t="s" s="4">
         <v>751</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="s">
+    <row r="317" ht="57.65" customHeight="1">
+      <c r="A317" t="s" s="3">
         <v>767</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" t="s" s="4">
         <v>768</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" t="s" s="3">
         <v>769</v>
       </c>
-      <c r="D317" s="2" t="s">
+      <c r="D317" t="s" s="4">
         <v>770</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="s">
+    <row r="318" ht="46.65" customHeight="1">
+      <c r="A318" t="s" s="3">
         <v>771</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" t="s" s="4">
         <v>772</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" t="s" s="3">
         <v>773</v>
       </c>
-      <c r="D318" s="2" t="s">
+      <c r="D318" t="s" s="4">
         <v>774</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="s">
+    <row r="319" ht="46.65" customHeight="1">
+      <c r="A319" t="s" s="3">
         <v>775</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" t="s" s="4">
         <v>776</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" t="s" s="3">
         <v>777</v>
       </c>
-      <c r="D319" s="2" t="s">
+      <c r="D319" t="s" s="4">
         <v>770</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="s">
+    <row r="320" ht="51" customHeight="1">
+      <c r="A320" t="s" s="3">
         <v>778</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" t="s" s="5">
         <v>776</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" t="s" s="5">
         <v>779</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D320" t="s" s="5">
         <v>780</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="s">
+    <row r="321" ht="51" customHeight="1">
+      <c r="A321" t="s" s="3">
         <v>781</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" t="s" s="5">
         <v>782</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" t="s" s="5">
         <v>783</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D321" t="s" s="5">
         <v>784</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="s">
+    <row r="322" ht="51" customHeight="1">
+      <c r="A322" t="s" s="3">
         <v>785</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" t="s" s="5">
         <v>782</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" t="s" s="5">
         <v>786</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D322" t="s" s="5">
         <v>784</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="s">
+    <row r="323" ht="51" customHeight="1">
+      <c r="A323" t="s" s="3">
         <v>787</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" t="s" s="5">
         <v>782</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" t="s" s="5">
         <v>788</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" t="s" s="5">
         <v>784</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="s">
+    <row r="324" ht="51" customHeight="1">
+      <c r="A324" t="s" s="3">
         <v>789</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" t="s" s="5">
         <v>782</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" t="s" s="5">
         <v>790</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" t="s" s="5">
         <v>784</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="s">
+    <row r="325" ht="51" customHeight="1">
+      <c r="A325" t="s" s="3">
         <v>791</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" t="s" s="5">
         <v>782</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" t="s" s="5">
         <v>792</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" t="s" s="5">
         <v>784</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="s">
+    <row r="326" ht="51" customHeight="1">
+      <c r="A326" t="s" s="3">
         <v>793</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" t="s" s="5">
         <v>782</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" t="s" s="5">
         <v>794</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" t="s" s="5">
         <v>784</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="s">
+    <row r="327" ht="51" customHeight="1">
+      <c r="A327" t="s" s="3">
         <v>795</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" t="s" s="5">
         <v>796</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" t="s" s="5">
         <v>797</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="s">
+    <row r="328" ht="39" customHeight="1">
+      <c r="A328" t="s" s="3">
         <v>799</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" t="s" s="5">
         <v>801</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="s">
+    <row r="329" ht="39" customHeight="1">
+      <c r="A329" t="s" s="3">
         <v>802</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" t="s" s="5">
         <v>803</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" t="s" s="5">
         <v>804</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" t="s" s="5">
         <v>805</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="s">
+    <row r="330" ht="39" customHeight="1">
+      <c r="A330" t="s" s="3">
         <v>806</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" t="s" s="5">
         <v>807</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" t="s" s="5">
         <v>808</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="s">
+    <row r="331" ht="39" customHeight="1">
+      <c r="A331" t="s" s="3">
         <v>809</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" t="s" s="5">
         <v>810</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="s">
+    <row r="332" ht="39" customHeight="1">
+      <c r="A332" t="s" s="3">
         <v>811</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" t="s" s="5">
         <v>812</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="s">
+    <row r="333" ht="39" customHeight="1">
+      <c r="A333" t="s" s="3">
         <v>813</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" t="s" s="5">
         <v>803</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" t="s" s="5">
         <v>804</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D333" t="s" s="5">
         <v>805</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="s">
+    <row r="334" ht="39" customHeight="1">
+      <c r="A334" t="s" s="3">
         <v>814</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" t="s" s="5">
         <v>816</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" t="s" s="5">
         <v>817</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="s">
+    <row r="335" ht="39" customHeight="1">
+      <c r="A335" t="s" s="3">
         <v>818</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" t="s" s="5">
         <v>819</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" t="s" s="5">
         <v>817</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="s">
+    <row r="336" ht="39" customHeight="1">
+      <c r="A336" t="s" s="3">
         <v>820</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" t="s" s="5">
         <v>821</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" t="s" s="5">
         <v>817</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="s">
+    <row r="337" ht="39" customHeight="1">
+      <c r="A337" t="s" s="3">
         <v>822</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" t="s" s="5">
         <v>823</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" t="s" s="5">
         <v>817</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="s">
+    <row r="338" ht="51" customHeight="1">
+      <c r="A338" t="s" s="3">
         <v>824</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" t="s" s="5">
         <v>826</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D338" t="s" s="5">
         <v>827</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="s">
+    <row r="339" ht="51" customHeight="1">
+      <c r="A339" t="s" s="3">
         <v>828</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" t="s" s="5">
         <v>829</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" t="s" s="5">
         <v>830</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="s">
+    <row r="340" ht="51" customHeight="1">
+      <c r="A340" t="s" s="3">
         <v>832</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" t="s" s="5">
         <v>833</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D340" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="s">
+    <row r="341" ht="51" customHeight="1">
+      <c r="A341" t="s" s="3">
         <v>834</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" t="s" s="6">
         <v>835</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D341" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="s">
+    <row r="342" ht="51" customHeight="1">
+      <c r="A342" t="s" s="3">
         <v>836</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" t="s" s="7">
         <v>825</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="C342" t="s" s="8">
         <v>837</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="D342" t="s" s="9">
         <v>831</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="s">
+    <row r="343" ht="51" customHeight="1">
+      <c r="A343" t="s" s="3">
         <v>838</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" t="s" s="5">
         <v>829</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" t="s" s="10">
         <v>839</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="D343" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="s">
+    <row r="344" ht="51" customHeight="1">
+      <c r="A344" t="s" s="3">
         <v>840</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" t="s" s="5">
         <v>841</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="s">
+    <row r="345" ht="51" customHeight="1">
+      <c r="A345" t="s" s="3">
         <v>842</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" t="s" s="5">
         <v>826</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D345" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="s">
+    <row r="346" ht="51" customHeight="1">
+      <c r="A346" t="s" s="3">
         <v>844</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" t="s" s="5">
         <v>845</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" t="s" s="5">
         <v>830</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D346" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="s">
+    <row r="347" ht="51" customHeight="1">
+      <c r="A347" t="s" s="3">
         <v>846</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" t="s" s="5">
         <v>833</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D347" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="s">
+    <row r="348" ht="51" customHeight="1">
+      <c r="A348" t="s" s="3">
         <v>847</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" t="s" s="6">
         <v>835</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D348" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="s">
+    <row r="349" ht="51" customHeight="1">
+      <c r="A349" t="s" s="3">
         <v>848</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" t="s" s="7">
         <v>843</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="C349" t="s" s="8">
         <v>837</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D349" t="s" s="9">
         <v>831</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="s">
+    <row r="350" ht="51" customHeight="1">
+      <c r="A350" t="s" s="3">
         <v>849</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" t="s" s="5">
         <v>845</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" t="s" s="10">
         <v>839</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="D350" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="s">
+    <row r="351" ht="51" customHeight="1">
+      <c r="A351" t="s" s="3">
         <v>850</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C351" t="s" s="5">
         <v>841</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D351" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="s">
+    <row r="352" ht="51" customHeight="1">
+      <c r="A352" t="s" s="3">
         <v>851</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C352" t="s" s="5">
         <v>826</v>
       </c>
-      <c r="D352" s="3" t="s">
+      <c r="D352" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="s">
+    <row r="353" ht="51" customHeight="1">
+      <c r="A353" t="s" s="3">
         <v>853</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" t="s" s="5">
         <v>854</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" t="s" s="5">
         <v>830</v>
       </c>
-      <c r="D353" s="3" t="s">
+      <c r="D353" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="s">
+    <row r="354" ht="51" customHeight="1">
+      <c r="A354" t="s" s="3">
         <v>855</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C354" t="s" s="5">
         <v>833</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D354" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="s">
+    <row r="355" ht="51" customHeight="1">
+      <c r="A355" t="s" s="3">
         <v>856</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C355" t="s" s="6">
         <v>835</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D355" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="s">
+    <row r="356" ht="51" customHeight="1">
+      <c r="A356" t="s" s="3">
         <v>857</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" t="s" s="7">
         <v>852</v>
       </c>
-      <c r="C356" s="4" t="s">
+      <c r="C356" t="s" s="8">
         <v>837</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="D356" t="s" s="9">
         <v>831</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="s">
+    <row r="357" ht="39" customHeight="1">
+      <c r="A357" t="s" s="3">
         <v>858</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" t="s" s="5">
         <v>859</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C357" t="s" s="10">
         <v>839</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D357" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="s">
+    <row r="358" ht="51" customHeight="1">
+      <c r="A358" t="s" s="3">
         <v>860</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C358" t="s" s="6">
         <v>841</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="D358" t="s" s="5">
         <v>831</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="s">
+    <row r="359" ht="39" customHeight="1">
+      <c r="A359" t="s" s="3">
         <v>861</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" t="s" s="7">
         <v>862</v>
       </c>
-      <c r="C359" s="4" t="s">
+      <c r="C359" t="s" s="8">
         <v>863</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D359" t="s" s="9">
         <v>864</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="s">
+    <row r="360" ht="75" customHeight="1">
+      <c r="A360" t="s" s="3">
         <v>865</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" t="s" s="5">
         <v>866</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C360" t="s" s="10">
         <v>867</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="D360" t="s" s="5">
         <v>868</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="s">
+    <row r="361" ht="51" customHeight="1">
+      <c r="A361" t="s" s="3">
         <v>869</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" t="s" s="5">
         <v>870</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C361" t="s" s="5">
         <v>871</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="D361" t="s" s="5">
         <v>872</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="s">
+    <row r="362" ht="75" customHeight="1">
+      <c r="A362" t="s" s="3">
         <v>873</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" t="s" s="5">
         <v>874</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C362" t="s" s="5">
         <v>875</v>
       </c>
-      <c r="D362" s="3" t="s">
+      <c r="D362" t="s" s="5">
         <v>876</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="s">
+    <row r="363" ht="39" customHeight="1">
+      <c r="A363" t="s" s="3">
         <v>877</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C363" t="s" s="5">
         <v>878</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="D363" t="s" s="5">
         <v>808</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="s">
+    <row r="364" ht="39" customHeight="1">
+      <c r="A364" t="s" s="3">
         <v>879</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" t="s" s="5">
         <v>880</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C364" t="s" s="5">
         <v>881</v>
       </c>
-      <c r="D364" s="3" t="s">
+      <c r="D364" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="s">
+    <row r="365" ht="39" customHeight="1">
+      <c r="A365" t="s" s="3">
         <v>882</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" t="s" s="5">
         <v>880</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C365" t="s" s="5">
         <v>883</v>
       </c>
-      <c r="D365" s="3" t="s">
+      <c r="D365" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="s">
+    <row r="366" ht="39" customHeight="1">
+      <c r="A366" t="s" s="3">
         <v>884</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C366" t="s" s="5">
         <v>885</v>
       </c>
-      <c r="D366" s="3" t="s">
+      <c r="D366" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="s">
+    <row r="367" ht="39" customHeight="1">
+      <c r="A367" t="s" s="3">
         <v>886</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" t="s" s="5">
         <v>880</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C367" t="s" s="5">
         <v>887</v>
       </c>
-      <c r="D367" s="3" t="s">
+      <c r="D367" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="s">
+    <row r="368" ht="39" customHeight="1">
+      <c r="A368" t="s" s="3">
         <v>888</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C368" t="s" s="5">
         <v>889</v>
       </c>
-      <c r="D368" s="3" t="s">
+      <c r="D368" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="s">
+    <row r="369" ht="39" customHeight="1">
+      <c r="A369" t="s" s="3">
         <v>890</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" t="s" s="5">
         <v>880</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C369" t="s" s="5">
         <v>891</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D369" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="s">
+    <row r="370" ht="39" customHeight="1">
+      <c r="A370" t="s" s="3">
         <v>892</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" t="s" s="5">
         <v>800</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C370" t="s" s="5">
         <v>893</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="D370" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="s">
+    <row r="371" ht="39" customHeight="1">
+      <c r="A371" t="s" s="3">
         <v>894</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" t="s" s="5">
         <v>880</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" t="s" s="5">
         <v>895</v>
       </c>
-      <c r="D371" s="3" t="s">
+      <c r="D371" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="s">
+    <row r="372" ht="39" customHeight="1">
+      <c r="A372" t="s" s="3">
         <v>896</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" t="s" s="5">
         <v>897</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="D372" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="s">
+    <row r="373" ht="39" customHeight="1">
+      <c r="A373" t="s" s="3">
         <v>898</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" t="s" s="5">
         <v>899</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C373" t="s" s="5">
         <v>900</v>
       </c>
-      <c r="D373" s="3" t="s">
+      <c r="D373" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="s">
+    <row r="374" ht="39" customHeight="1">
+      <c r="A374" t="s" s="3">
         <v>901</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C374" t="s" s="5">
         <v>902</v>
       </c>
-      <c r="D374" s="3" t="s">
+      <c r="D374" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="s">
+    <row r="375" ht="39" customHeight="1">
+      <c r="A375" t="s" s="3">
         <v>903</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C375" t="s" s="5">
         <v>904</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="D375" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="s">
+    <row r="376" ht="39" customHeight="1">
+      <c r="A376" t="s" s="3">
         <v>905</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" t="s" s="5">
         <v>899</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C376" t="s" s="5">
         <v>891</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="D376" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="s">
+    <row r="377" ht="39" customHeight="1">
+      <c r="A377" t="s" s="3">
         <v>906</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" t="s" s="5">
         <v>815</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" t="s" s="5">
         <v>907</v>
       </c>
-      <c r="D377" s="3" t="s">
+      <c r="D377" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="s">
+    <row r="378" ht="39" customHeight="1">
+      <c r="A378" t="s" s="3">
         <v>908</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" t="s" s="5">
         <v>909</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C378" t="s" s="5">
         <v>910</v>
       </c>
-      <c r="D378" s="3" t="s">
+      <c r="D378" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="s">
+    <row r="379" ht="39" customHeight="1">
+      <c r="A379" t="s" s="3">
         <v>911</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" t="s" s="5">
         <v>859</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C379" t="s" s="5">
         <v>912</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="D379" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="s">
+    <row r="380" ht="39" customHeight="1">
+      <c r="A380" t="s" s="3">
         <v>913</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" t="s" s="5">
         <v>909</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C380" t="s" s="5">
         <v>914</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D380" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="s">
+    <row r="381" ht="39" customHeight="1">
+      <c r="A381" t="s" s="3">
         <v>915</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" t="s" s="5">
         <v>909</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" t="s" s="5">
         <v>916</v>
       </c>
-      <c r="D381" s="3" t="s">
+      <c r="D381" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="s">
+    <row r="382" ht="39" customHeight="1">
+      <c r="A382" t="s" s="3">
         <v>917</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" t="s" s="5">
         <v>909</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="C382" t="s" s="5">
         <v>893</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D382" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="s">
+    <row r="383" ht="39" customHeight="1">
+      <c r="A383" t="s" s="3">
         <v>918</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" t="s" s="5">
         <v>859</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" t="s" s="5">
         <v>895</v>
       </c>
-      <c r="D383" s="3" t="s">
+      <c r="D383" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="s">
+    <row r="384" ht="39" customHeight="1">
+      <c r="A384" t="s" s="3">
         <v>919</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" t="s" s="5">
         <v>920</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" t="s" s="5">
         <v>897</v>
       </c>
-      <c r="D384" s="3" t="s">
+      <c r="D384" t="s" s="5">
         <v>921</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="s">
+    <row r="385" ht="39" customHeight="1">
+      <c r="A385" t="s" s="3">
         <v>922</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" t="s" s="5">
         <v>923</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C385" t="s" s="5">
         <v>878</v>
       </c>
-      <c r="D385" s="3" t="s">
+      <c r="D385" t="s" s="5">
         <v>924</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="s">
+    <row r="386" ht="63" customHeight="1">
+      <c r="A386" t="s" s="3">
         <v>925</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" t="s" s="5">
         <v>926</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C386" t="s" s="5">
         <v>916</v>
       </c>
-      <c r="D386" s="3" t="s">
+      <c r="D386" t="s" s="5">
         <v>927</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="s">
+    <row r="387" ht="63" customHeight="1">
+      <c r="A387" t="s" s="3">
         <v>928</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" t="s" s="5">
         <v>929</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C387" t="s" s="5">
         <v>893</v>
       </c>
-      <c r="D387" s="3" t="s">
+      <c r="D387" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="s">
+    <row r="388" ht="63" customHeight="1">
+      <c r="A388" t="s" s="3">
         <v>930</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" t="s" s="5">
         <v>931</v>
       </c>
-      <c r="C388" s="3" t="s">
+      <c r="C388" t="s" s="5">
         <v>932</v>
       </c>
-      <c r="D388" s="3" t="s">
+      <c r="D388" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="s">
+    <row r="389" ht="75" customHeight="1">
+      <c r="A389" t="s" s="3">
         <v>933</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" t="s" s="5">
         <v>934</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C389" t="s" s="5">
         <v>935</v>
       </c>
-      <c r="D389" s="3" t="s">
+      <c r="D389" t="s" s="5">
         <v>798</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="s">
+    <row r="390" ht="51" customHeight="1">
+      <c r="A390" t="s" s="3">
         <v>936</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C390" t="s" s="5">
         <v>937</v>
       </c>
-      <c r="D390" s="3" t="s">
+      <c r="D390" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="s">
+    <row r="391" ht="51" customHeight="1">
+      <c r="A391" t="s" s="3">
         <v>938</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" t="s" s="5">
         <v>829</v>
       </c>
-      <c r="C391" s="3" t="s">
+      <c r="C391" t="s" s="5">
         <v>939</v>
       </c>
-      <c r="D391" s="3" t="s">
+      <c r="D391" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="s">
+    <row r="392" ht="51" customHeight="1">
+      <c r="A392" t="s" s="3">
         <v>940</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C392" s="3" t="s">
+      <c r="C392" t="s" s="5">
         <v>941</v>
       </c>
-      <c r="D392" s="3" t="s">
+      <c r="D392" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="s">
+    <row r="393" ht="51" customHeight="1">
+      <c r="A393" t="s" s="3">
         <v>942</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" t="s" s="5">
         <v>829</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C393" t="s" s="5">
         <v>943</v>
       </c>
-      <c r="D393" s="3" t="s">
+      <c r="D393" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="s">
+    <row r="394" ht="51" customHeight="1">
+      <c r="A394" t="s" s="3">
         <v>944</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C394" s="3" t="s">
+      <c r="C394" t="s" s="5">
         <v>945</v>
       </c>
-      <c r="D394" s="3" t="s">
+      <c r="D394" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="s">
+    <row r="395" ht="51" customHeight="1">
+      <c r="A395" t="s" s="3">
         <v>946</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" t="s" s="5">
         <v>829</v>
       </c>
-      <c r="C395" s="3" t="s">
+      <c r="C395" t="s" s="5">
         <v>947</v>
       </c>
-      <c r="D395" s="3" t="s">
+      <c r="D395" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="s">
+    <row r="396" ht="51" customHeight="1">
+      <c r="A396" t="s" s="3">
         <v>948</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" t="s" s="5">
         <v>825</v>
       </c>
-      <c r="C396" s="3" t="s">
+      <c r="C396" t="s" s="5">
         <v>949</v>
       </c>
-      <c r="D396" s="3" t="s">
+      <c r="D396" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="s">
+    <row r="397" ht="51" customHeight="1">
+      <c r="A397" t="s" s="3">
         <v>950</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C397" t="s" s="5">
         <v>937</v>
       </c>
-      <c r="D397" s="3" t="s">
+      <c r="D397" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="s">
+    <row r="398" ht="51" customHeight="1">
+      <c r="A398" t="s" s="3">
         <v>951</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" t="s" s="5">
         <v>845</v>
       </c>
-      <c r="C398" s="3" t="s">
+      <c r="C398" t="s" s="5">
         <v>939</v>
       </c>
-      <c r="D398" s="3" t="s">
+      <c r="D398" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="s">
+    <row r="399" ht="51" customHeight="1">
+      <c r="A399" t="s" s="3">
         <v>952</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C399" t="s" s="5">
         <v>941</v>
       </c>
-      <c r="D399" s="3" t="s">
+      <c r="D399" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="s">
+    <row r="400" ht="51" customHeight="1">
+      <c r="A400" t="s" s="3">
         <v>953</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" t="s" s="5">
         <v>845</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="C400" t="s" s="5">
         <v>943</v>
       </c>
-      <c r="D400" s="3" t="s">
+      <c r="D400" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="s">
+    <row r="401" ht="51" customHeight="1">
+      <c r="A401" t="s" s="3">
         <v>954</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C401" s="3" t="s">
+      <c r="C401" t="s" s="5">
         <v>945</v>
       </c>
-      <c r="D401" s="3" t="s">
+      <c r="D401" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="s">
+    <row r="402" ht="51" customHeight="1">
+      <c r="A402" t="s" s="3">
         <v>955</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" t="s" s="5">
         <v>845</v>
       </c>
-      <c r="C402" s="3" t="s">
+      <c r="C402" t="s" s="5">
         <v>947</v>
       </c>
-      <c r="D402" s="3" t="s">
+      <c r="D402" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="s">
+    <row r="403" ht="51" customHeight="1">
+      <c r="A403" t="s" s="3">
         <v>956</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" t="s" s="5">
         <v>843</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C403" t="s" s="5">
         <v>949</v>
       </c>
-      <c r="D403" s="3" t="s">
+      <c r="D403" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="s">
+    <row r="404" ht="51" customHeight="1">
+      <c r="A404" t="s" s="3">
         <v>957</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C404" t="s" s="5">
         <v>937</v>
       </c>
-      <c r="D404" s="3" t="s">
+      <c r="D404" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="s">
+    <row r="405" ht="51" customHeight="1">
+      <c r="A405" t="s" s="3">
         <v>958</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" t="s" s="5">
         <v>854</v>
       </c>
-      <c r="C405" s="3" t="s">
+      <c r="C405" t="s" s="5">
         <v>939</v>
       </c>
-      <c r="D405" s="3" t="s">
+      <c r="D405" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="s">
+    <row r="406" ht="51" customHeight="1">
+      <c r="A406" t="s" s="3">
         <v>959</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C406" s="3" t="s">
+      <c r="C406" t="s" s="5">
         <v>941</v>
       </c>
-      <c r="D406" s="3" t="s">
+      <c r="D406" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="s">
+    <row r="407" ht="51" customHeight="1">
+      <c r="A407" t="s" s="3">
         <v>960</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" t="s" s="5">
         <v>854</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" t="s" s="5">
         <v>943</v>
       </c>
-      <c r="D407" s="3" t="s">
+      <c r="D407" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="s">
+    <row r="408" ht="51" customHeight="1">
+      <c r="A408" t="s" s="3">
         <v>961</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C408" t="s" s="5">
         <v>945</v>
       </c>
-      <c r="D408" s="3" t="s">
+      <c r="D408" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="s">
+    <row r="409" ht="51" customHeight="1">
+      <c r="A409" t="s" s="3">
         <v>962</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" t="s" s="5">
         <v>854</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C409" t="s" s="5">
         <v>947</v>
       </c>
-      <c r="D409" s="3" t="s">
+      <c r="D409" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="s">
+    <row r="410" ht="51" customHeight="1">
+      <c r="A410" t="s" s="3">
         <v>963</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" t="s" s="5">
         <v>852</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" t="s" s="5">
         <v>949</v>
       </c>
-      <c r="D410" s="3" t="s">
+      <c r="D410" t="s" s="5">
         <v>770</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="s">
+    <row r="411" ht="39" customHeight="1">
+      <c r="A411" t="s" s="3">
         <v>964</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" t="s" s="5">
         <v>965</v>
       </c>
-      <c r="C411" s="3" t="s">
+      <c r="C411" t="s" s="5">
         <v>966</v>
       </c>
-      <c r="D411" s="3" t="s">
+      <c r="D411" t="s" s="5">
         <v>967</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="s">
+    <row r="412" ht="39" customHeight="1">
+      <c r="A412" t="s" s="3">
         <v>968</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" t="s" s="5">
         <v>969</v>
       </c>
-      <c r="C412" s="3" t="s">
+      <c r="C412" t="s" s="5">
         <v>966</v>
       </c>
-      <c r="D412" s="3" t="s">
+      <c r="D412" t="s" s="5">
         <v>970</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="s">
+    <row r="413" ht="39" customHeight="1">
+      <c r="A413" t="s" s="3">
         <v>971</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" t="s" s="5">
         <v>972</v>
       </c>
-      <c r="C413" s="3" t="s">
+      <c r="C413" t="s" s="5">
         <v>966</v>
       </c>
-      <c r="D413" s="3" t="s">
+      <c r="D413" t="s" s="5">
         <v>973</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="s">
+    <row r="414" ht="39" customHeight="1">
+      <c r="A414" t="s" s="3">
         <v>974</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" t="s" s="5">
         <v>975</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C414" t="s" s="5">
         <v>976</v>
       </c>
-      <c r="D414" s="3" t="s">
+      <c r="D414" t="s" s="5">
         <v>977</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="s">
+    <row r="415" ht="39" customHeight="1">
+      <c r="A415" t="s" s="3">
         <v>978</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" t="s" s="5">
         <v>979</v>
       </c>
-      <c r="C415" s="3" t="s">
+      <c r="C415" t="s" s="5">
         <v>980</v>
       </c>
-      <c r="D415" s="3" t="s">
+      <c r="D415" t="s" s="5">
         <v>967</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="s">
+    <row r="416" ht="39" customHeight="1">
+      <c r="A416" t="s" s="3">
         <v>981</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" t="s" s="5">
         <v>979</v>
       </c>
-      <c r="C416" s="3" t="s">
+      <c r="C416" t="s" s="5">
         <v>982</v>
       </c>
-      <c r="D416" s="3" t="s">
+      <c r="D416" t="s" s="5">
         <v>967</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="s">
+    <row r="417" ht="39" customHeight="1">
+      <c r="A417" t="s" s="3">
         <v>983</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" t="s" s="5">
         <v>979</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C417" t="s" s="5">
         <v>984</v>
       </c>
-      <c r="D417" s="3" t="s">
+      <c r="D417" t="s" s="5">
         <v>967</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="s">
+    <row r="418" ht="39" customHeight="1">
+      <c r="A418" t="s" s="3">
         <v>985</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" t="s" s="5">
         <v>979</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C418" t="s" s="5">
         <v>986</v>
       </c>
-      <c r="D418" s="3" t="s">
+      <c r="D418" t="s" s="5">
         <v>967</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="s">
+    <row r="419" ht="39" customHeight="1">
+      <c r="A419" t="s" s="3">
         <v>987</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" t="s" s="5">
         <v>988</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C419" t="s" s="5">
         <v>966</v>
       </c>
-      <c r="D419" s="3" t="s">
+      <c r="D419" t="s" s="5">
         <v>973</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="s">
+    <row r="420" ht="51" customHeight="1">
+      <c r="A420" t="s" s="3">
         <v>989</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" t="s" s="5">
         <v>990</v>
       </c>
-      <c r="C420" s="3" t="s">
+      <c r="C420" t="s" s="5">
         <v>991</v>
       </c>
-      <c r="D420" s="3" t="s">
+      <c r="D420" t="s" s="5">
         <v>992</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="s">
+    <row r="421" ht="39" customHeight="1">
+      <c r="A421" t="s" s="3">
         <v>993</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" t="s" s="5">
         <v>994</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C421" t="s" s="5">
         <v>995</v>
       </c>
-      <c r="D421" s="3" t="s">
+      <c r="D421" t="s" s="5">
         <v>996</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="s">
+    <row r="422" ht="27" customHeight="1">
+      <c r="A422" t="s" s="3">
         <v>997</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" t="s" s="5">
         <v>998</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C422" t="s" s="5">
         <v>999</v>
       </c>
-      <c r="D422" s="3" t="s">
+      <c r="D422" t="s" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="s">
+    <row r="423" ht="27" customHeight="1">
+      <c r="A423" t="s" s="3">
         <v>1001</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" t="s" s="5">
         <v>998</v>
       </c>
-      <c r="C423" s="3" t="s">
+      <c r="C423" t="s" s="5">
         <v>1002</v>
       </c>
-      <c r="D423" s="3" t="s">
+      <c r="D423" t="s" s="5">
         <v>1003</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="s">
+    <row r="424" ht="27" customHeight="1">
+      <c r="A424" t="s" s="3">
         <v>1004</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" t="s" s="5">
         <v>998</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="C424" t="s" s="5">
         <v>1005</v>
       </c>
-      <c r="D424" s="3" t="s">
+      <c r="D424" t="s" s="5">
         <v>1006</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="s">
+    <row r="425" ht="27" customHeight="1">
+      <c r="A425" t="s" s="3">
         <v>1007</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" t="s" s="5">
         <v>998</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C425" t="s" s="5">
         <v>1008</v>
       </c>
-      <c r="D425" s="3" t="s">
+      <c r="D425" t="s" s="5">
         <v>1009</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="s">
+    <row r="426" ht="27" customHeight="1">
+      <c r="A426" t="s" s="3">
         <v>1010</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" t="s" s="5">
         <v>998</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C426" t="s" s="5">
         <v>1011</v>
       </c>
-      <c r="D426" s="3" t="s">
+      <c r="D426" t="s" s="5">
         <v>1012</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="s">
+    <row r="427" ht="39" customHeight="1">
+      <c r="A427" t="s" s="3">
         <v>1013</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" t="s" s="5">
         <v>1014</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C427" t="s" s="5">
         <v>1015</v>
       </c>
-      <c r="D427" s="3" t="s">
+      <c r="D427" t="s" s="5">
         <v>1016</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="s">
+    <row r="428" ht="39" customHeight="1">
+      <c r="A428" t="s" s="3">
         <v>1017</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" t="s" s="5">
         <v>1018</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C428" t="s" s="5">
         <v>1019</v>
       </c>
-      <c r="D428" s="3" t="s">
+      <c r="D428" t="s" s="5">
         <v>1012</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="s">
+    <row r="429" ht="39" customHeight="1">
+      <c r="A429" t="s" s="3">
         <v>1020</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" t="s" s="5">
         <v>1021</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C429" t="s" s="5">
         <v>1022</v>
       </c>
-      <c r="D429" s="3" t="s">
+      <c r="D429" t="s" s="5">
         <v>1023</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="s">
+    <row r="430" ht="39" customHeight="1">
+      <c r="A430" t="s" s="3">
         <v>1024</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" t="s" s="5">
         <v>1025</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C430" t="s" s="5">
         <v>1026</v>
       </c>
-      <c r="D430" s="3" t="s">
+      <c r="D430" t="s" s="5">
         <v>1027</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="s">
+    <row r="431" ht="27" customHeight="1">
+      <c r="A431" t="s" s="3">
         <v>1028</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" t="s" s="5">
         <v>998</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C431" t="s" s="5">
         <v>1029</v>
       </c>
-      <c r="D431" s="3" t="s">
+      <c r="D431" t="s" s="5">
         <v>1030</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="s">
+    <row r="432" ht="39" customHeight="1">
+      <c r="A432" t="s" s="3">
         <v>1031</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" t="s" s="5">
         <v>1014</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C432" t="s" s="5">
         <v>1029</v>
       </c>
-      <c r="D432" s="3" t="s">
+      <c r="D432" t="s" s="5">
         <v>1030</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="s">
+    <row r="433" ht="24.65" customHeight="1">
+      <c r="A433" t="s" s="3">
         <v>1032</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" t="s" s="4">
         <v>1018</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C433" t="s" s="3">
         <v>1029</v>
       </c>
-      <c r="D433" s="2" t="s">
+      <c r="D433" t="s" s="3">
         <v>1030</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>